--- a/stock_trading_journal.xlsx
+++ b/stock_trading_journal.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChienVH\Code\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DF1F18-E12D-4D69-90E2-7AFBC7A04101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC2011C-66AB-4ECE-A89F-5636268719C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
+  <futureMetadata name="XLRICHVALUE" count="2">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -45,17 +46,27 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="1">
+  <valueMetadata count="2">
     <bk>
       <rc t="1" v="0"/>
     </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Ngày giao dịch</t>
   </si>
@@ -100,6 +111,15 @@
   </si>
   <si>
     <t>Đường MA vẫn đang xu hướng đi lên, MACD cũng có xu hướng đi lên, các cây tăng trước vol lớn cây điều chỉnh vol nhỏ, giá điều chỉnh về MA10</t>
+  </si>
+  <si>
+    <t>Bán</t>
+  </si>
+  <si>
+    <t>Ngày 9/9/2024 giá xuyên qua MA20, MACD cắt xuống dưới đường tín hiệu, ngày 10/10 giá không thể test lại MA20 mà còn giảm khá mạnh với 1 cây vol khá lớn</t>
+  </si>
+  <si>
+    <t>Mua cổ phiếu hơi muộn nên mua 1 ít cổ phiếu ở cây nến break ngày 16/8/24 và đến cây nến ngày 17 khi nến vượt trên đỉnh kháng cự 44.4 thì mua thêm nhiều. Bán khi giá gặp kháng cự ở 46.2. Việc mua thêm 900 cổ ở mức giá chạm M20 không sai và đã cắt lỗ đúng với kế hoạch khi giá chọc thủng MA20 và test lại không thành công</t>
   </si>
 </sst>
 </file>
@@ -169,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -182,6 +202,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -241,9 +264,13 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
   <rv s="0">
     <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -261,6 +288,7 @@
 <file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
 </richValueRels>
 </file>
 
@@ -551,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -637,7 +665,51 @@
         <v>#VALUE!</v>
       </c>
     </row>
+    <row r="3" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>45574</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43.25</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <f>D3*E3</f>
+        <v>82175</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="3" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C60CC60-A1C0-4BCD-B431-0F15697C2108}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/stock_trading_journal.xlsx
+++ b/stock_trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChienVH\Code\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC2011C-66AB-4ECE-A89F-5636268719C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6588C8FF-7298-483A-9565-E1CFAAFA5060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="2">
+  <futureMetadata name="XLRICHVALUE" count="4">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -53,20 +53,40 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="2">
+  <valueMetadata count="4">
     <bk>
       <rc t="1" v="0"/>
     </bk>
     <bk>
       <rc t="1" v="1"/>
     </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Ngày giao dịch</t>
   </si>
@@ -119,7 +139,31 @@
     <t>Ngày 9/9/2024 giá xuyên qua MA20, MACD cắt xuống dưới đường tín hiệu, ngày 10/10 giá không thể test lại MA20 mà còn giảm khá mạnh với 1 cây vol khá lớn</t>
   </si>
   <si>
-    <t>Mua cổ phiếu hơi muộn nên mua 1 ít cổ phiếu ở cây nến break ngày 16/8/24 và đến cây nến ngày 17 khi nến vượt trên đỉnh kháng cự 44.4 thì mua thêm nhiều. Bán khi giá gặp kháng cự ở 46.2. Việc mua thêm 900 cổ ở mức giá chạm M20 không sai và đã cắt lỗ đúng với kế hoạch khi giá chọc thủng MA20 và test lại không thành công</t>
+    <t>Mua cổ phiếu hơi muộn nên mua 1 ít cổ phiếu ở cây nến break ngày 16/8/24 và đến cây nến ngày 17 khi nến vượt trên đỉnh kháng cự 44.4 thì mua thêm nhiều. Bán khi giá gặp kháng cự ở 46.2. Việc mua thêm 900 cổ ở mức giá chạm M20 không sai và đã cắt lỗ đúng với kế hoạch khi giá chọc thủng MA20 và test lại không thành công(sự sụt giảm bất thường này có thể do siêu bảo YaGi gây thiệt hại lớn dẫn đến tâm lý lo sợ ngành bảo hiểm sẽ phải đền bù nhiều) =&gt; lần sau cần phải chú ý các sự kiện và suy nghĩ xem nó có ảnh hưởng gì đến cổ phiếu mình đang nắm giữ hay không</t>
+  </si>
+  <si>
+    <t>Kết quả giao dịch</t>
+  </si>
+  <si>
+    <t>Lỗ</t>
+  </si>
+  <si>
+    <t>13/9/2024</t>
+  </si>
+  <si>
+    <t>PDR</t>
+  </si>
+  <si>
+    <t>Ngày 13/9/2024 giá chạm qua MA20, đường MA20 vẫn đang hướng lên, chỉ số chứng khóa mỹ hôm trước có phiên tăng điểm</t>
+  </si>
+  <si>
+    <t>NVL</t>
+  </si>
+  <si>
+    <t>Ngày 11/9/2024 có tin xấu chưa nộp báo cáo tài chính bị loại khỏi danh sách margin giá xuyên qua MA20 xuống giá sàn, MACD cắt xuống dưới đường tín hiệu,</t>
+  </si>
+  <si>
+    <t>Nắm bắt tin quá chậm, không kịp cắt sáng ngày 11/9</t>
   </si>
 </sst>
 </file>
@@ -264,7 +308,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -273,6 +317,14 @@
     <v>1</v>
     <v>5</v>
   </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
 </rvData>
 </file>
 
@@ -289,6 +341,8 @@
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
   <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
 </richValueRels>
 </file>
 
@@ -579,10 +633,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -595,12 +650,12 @@
     <col min="6" max="7" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.21875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="37.5546875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
+    <col min="10" max="11" width="20.109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="37.5546875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,10 +687,13 @@
         <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -665,7 +723,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="234" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>45574</v>
       </c>
@@ -693,9 +751,80 @@
       <c r="J3" s="3" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="4" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>45635</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <f>D4*E4</f>
+        <v>14160</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="3" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E5" s="3">
+        <v>21.15</v>
+      </c>
+      <c r="F5" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <f>D5*E5</f>
+        <v>54989.999999999993</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="3" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stock_trading_journal.xlsx
+++ b/stock_trading_journal.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChienVH\Code\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6588C8FF-7298-483A-9565-E1CFAAFA5060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4923B0DB-8035-4453-99FF-91BC28D5100F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="History_trading" sheetId="1" r:id="rId1"/>
+    <sheet name="Back_Test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Ngày giao dịch</t>
   </si>
@@ -164,13 +164,25 @@
   </si>
   <si>
     <t>Nắm bắt tin quá chậm, không kịp cắt sáng ngày 11/9</t>
+  </si>
+  <si>
+    <t>Giá Mua</t>
+  </si>
+  <si>
+    <t>Giá Bán</t>
+  </si>
+  <si>
+    <t>Lãi/Lỗ(%)</t>
+  </si>
+  <si>
+    <t>Bài học</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +199,18 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -233,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -249,6 +273,18 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,9 +671,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -833,12 +869,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C60CC60-A1C0-4BCD-B431-0F15697C2108}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="60" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="9" t="e">
+        <f>ROUND((B1 - A1) / A1 * 100, 2)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stock_trading_journal.xlsx
+++ b/stock_trading_journal.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChienVH\Code\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4923B0DB-8035-4453-99FF-91BC28D5100F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF3C131-050C-4691-99A9-8755DB425063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="History_trading" sheetId="1" r:id="rId1"/>
-    <sheet name="Back_Test" sheetId="2" r:id="rId2"/>
+    <sheet name="Theo_dõi" sheetId="3" r:id="rId2"/>
+    <sheet name="Back_Test" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="4">
+  <futureMetadata name="XLRICHVALUE" count="5">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -67,8 +68,15 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="4">
+  <valueMetadata count="5">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -81,12 +89,15 @@
     <bk>
       <rc t="1" v="3"/>
     </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Ngày giao dịch</t>
   </si>
@@ -154,9 +165,6 @@
     <t>PDR</t>
   </si>
   <si>
-    <t>Ngày 13/9/2024 giá chạm qua MA20, đường MA20 vẫn đang hướng lên, chỉ số chứng khóa mỹ hôm trước có phiên tăng điểm</t>
-  </si>
-  <si>
     <t>NVL</t>
   </si>
   <si>
@@ -175,7 +183,40 @@
     <t>Lãi/Lỗ(%)</t>
   </si>
   <si>
-    <t>Bài học</t>
+    <t>17/9/2024</t>
+  </si>
+  <si>
+    <t>Ngày 13/9/2024 giá chạm qua MA20, đường MA20 vẫn đang hướng lên, chỉ số chứng khóa mỹ hôm trước có phiên tăng điểm, mua với mong muốn bán khi giá quay lại đỉnh cũ tạo 2 mô hình 2 đỉnh và tạo 2 đỉnh MACD phân kì âm</t>
+  </si>
+  <si>
+    <t>Ngày 16/9/2024 thị trường xấu giá xuyên qua MA20 =&gt; không đúng với kỳ vọng =&gt; M20 là kháng cự giá hồi M20 bán</t>
+  </si>
+  <si>
+    <t>MBB</t>
+  </si>
+  <si>
+    <t>18/9/2024</t>
+  </si>
+  <si>
+    <t>Ngày 18/9/2024 giá cắt qua MA20, đường MA20 vẫn đang đi ngang, buổi sáng thị trường có tín hiệu tốt khi VNI tăng mạnh</t>
+  </si>
+  <si>
+    <t>Hoà</t>
+  </si>
+  <si>
+    <t>Mã</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>HPG</t>
+  </si>
+  <si>
+    <t>giá chạm MA20</t>
+  </si>
+  <si>
+    <t>KBC</t>
   </si>
 </sst>
 </file>
@@ -216,7 +257,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +267,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -274,6 +321,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -286,6 +334,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,7 +394,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -359,6 +409,10 @@
   </rv>
   <rv s="0">
     <v>3</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -379,6 +433,7 @@
   <rel r:id="rId2"/>
   <rel r:id="rId3"/>
   <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
 </richValueRels>
 </file>
 
@@ -669,11 +724,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -799,7 +854,7 @@
         <v>45635</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -817,7 +872,7 @@
         <v>14160</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" s="3" t="e" vm="3">
         <v>#VALUE!</v>
@@ -826,10 +881,10 @@
         <v>19</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -854,13 +909,79 @@
         <v>54989.999999999993</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J5" s="3" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E6" s="3">
+        <v>21.2</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <f>D6*E6</f>
+        <v>65720</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="3" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E7" s="3">
+        <v>24.45</v>
+      </c>
+      <c r="F7" s="3">
+        <v>25.1</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <f>D7*E7</f>
+        <v>73350</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="3" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -868,41 +989,1386 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70DC592-D4E4-4D13-ADCA-E681C1A017AC}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C60CC60-A1C0-4BCD-B431-0F15697C2108}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.21875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="60" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="16.21875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="60" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>24.1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="C2" s="10">
+        <f>ROUND((B2 - A2) / A2 * 100, 2)</f>
+        <v>5.81</v>
+      </c>
+      <c r="D2" s="10">
+        <f>ROUND(D1 * (1 + C2 / 100), 2)</f>
+        <v>105.81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>26.3</v>
+      </c>
+      <c r="B3" s="10">
+        <v>27.86</v>
+      </c>
+      <c r="C3" s="10">
+        <f>ROUND((B3 - A3) / A3 * 100, 2)</f>
+        <v>5.93</v>
+      </c>
+      <c r="D3" s="10">
+        <f t="shared" ref="D3:D28" si="0">ROUND(D2 * (1 + C3 / 100), 2)</f>
+        <v>112.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>29.9</v>
+      </c>
+      <c r="B4" s="10">
+        <v>31.16</v>
+      </c>
+      <c r="C4" s="10">
+        <f>ROUND((B4 - A4) / A4 * 100, 2)</f>
+        <v>4.21</v>
+      </c>
+      <c r="D4" s="10">
+        <f t="shared" si="0"/>
+        <v>116.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>31.5</v>
+      </c>
+      <c r="B5" s="10">
+        <v>33.9</v>
+      </c>
+      <c r="C5" s="10">
+        <f>ROUND((B5 - A5) / A5 * 100, 2)</f>
+        <v>7.62</v>
+      </c>
+      <c r="D5" s="10">
+        <f t="shared" si="0"/>
+        <v>125.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>34.6</v>
+      </c>
+      <c r="B6" s="10">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="C6" s="10">
+        <f>ROUND((B6 - A6) / A6 * 100, 2)</f>
+        <v>7.8</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" si="0"/>
+        <v>135.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="B7" s="10">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="C7" s="10">
+        <f>ROUND((B7 - A7) / A7 * 100, 2)</f>
+        <v>-0.3</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>135.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>33.9</v>
+      </c>
+      <c r="B8" s="10">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C8" s="10">
+        <f>ROUND((B8 - A8) / A8 * 100, 2)</f>
+        <v>3.83</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>140.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>35.6</v>
+      </c>
+      <c r="B9" s="10">
+        <v>36</v>
+      </c>
+      <c r="C9" s="10">
+        <f>ROUND((B9 - A9) / A9 * 100, 2)</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>141.83000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="B10" s="10">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="C10" s="10">
+        <f>ROUND((B10 - A10) / A10 * 100, 2)</f>
+        <v>-1.22</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>140.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>32.6</v>
+      </c>
+      <c r="B11" s="10">
+        <v>34.5</v>
+      </c>
+      <c r="C11" s="10">
+        <f>ROUND((B11 - A11) / A11 * 100, 2)</f>
+        <v>5.83</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>148.27000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>32.5</v>
+      </c>
+      <c r="B12" s="10">
+        <v>31.7</v>
+      </c>
+      <c r="C12" s="10">
+        <f>ROUND((B12 - A12) / A12 * 100, 2)</f>
+        <v>-2.46</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>144.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="B13" s="10">
+        <v>21.24</v>
+      </c>
+      <c r="C13" s="10">
+        <f>ROUND((B13 - A13) / A13 * 100, 2)</f>
+        <v>4.12</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
+        <v>150.58000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>13.7</v>
+      </c>
+      <c r="B14" s="10">
+        <v>15.66</v>
+      </c>
+      <c r="C14" s="10">
+        <f>ROUND((B14 - A14) / A14 * 100, 2)</f>
+        <v>14.31</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="0"/>
+        <v>172.13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>17.5</v>
+      </c>
+      <c r="B15" s="10">
+        <v>19.2</v>
+      </c>
+      <c r="C15" s="10">
+        <f>ROUND((B15 - A15) / A15 * 100, 2)</f>
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="0"/>
+        <v>188.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>19.54</v>
+      </c>
+      <c r="B16" s="10">
+        <v>19.18</v>
+      </c>
+      <c r="C16" s="10">
+        <f>ROUND((B16 - A16) / A16 * 100, 2)</f>
+        <v>-1.84</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="0"/>
+        <v>185.37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>19.36</v>
+      </c>
+      <c r="B17" s="10">
+        <v>19.27</v>
+      </c>
+      <c r="C17" s="10">
+        <f>ROUND((B17 - A17) / A17 * 100, 2)</f>
+        <v>-0.46</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="0"/>
+        <v>184.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>19.68</v>
+      </c>
+      <c r="B18" s="10">
+        <v>19.82</v>
+      </c>
+      <c r="C18" s="10">
+        <f>ROUND((B18 - A18) / A18 * 100, 2)</f>
+        <v>0.71</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="0"/>
+        <v>185.83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>20.5</v>
+      </c>
+      <c r="B19" s="10">
+        <v>22.2</v>
+      </c>
+      <c r="C19" s="10">
+        <f>ROUND((B19 - A19) / A19 * 100, 2)</f>
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="0"/>
+        <v>201.24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>26</v>
+      </c>
+      <c r="B20" s="10">
+        <v>25.8</v>
+      </c>
+      <c r="C20" s="10">
+        <f>ROUND((B20 - A20) / A20 * 100, 2)</f>
+        <v>-0.77</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="0"/>
+        <v>199.69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>22.5</v>
+      </c>
+      <c r="B21" s="10">
+        <v>24.9</v>
+      </c>
+      <c r="C21" s="10">
+        <f>ROUND((B21 - A21) / A21 * 100, 2)</f>
+        <v>10.67</v>
+      </c>
+      <c r="D21" s="10">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>25.72</v>
+      </c>
+      <c r="B22" s="10">
+        <v>26.6</v>
+      </c>
+      <c r="C22" s="10">
+        <f>ROUND((B22 - A22) / A22 * 100, 2)</f>
+        <v>3.42</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" si="0"/>
+        <v>228.56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>26.8</v>
+      </c>
+      <c r="B23" s="10">
+        <v>27.5</v>
+      </c>
+      <c r="C23" s="10">
+        <f>ROUND((B23 - A23) / A23 * 100, 2)</f>
+        <v>2.61</v>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" si="0"/>
+        <v>234.53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>25.6</v>
+      </c>
+      <c r="B24" s="10">
+        <v>28.1</v>
+      </c>
+      <c r="C24" s="10">
+        <f>ROUND((B24 - A24) / A24 * 100, 2)</f>
+        <v>9.77</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" si="0"/>
+        <v>257.44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>28.36</v>
+      </c>
+      <c r="B25" s="10">
+        <v>29.1</v>
+      </c>
+      <c r="C25" s="10">
+        <f>ROUND((B25 - A25) / A25 * 100, 2)</f>
+        <v>2.61</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="0"/>
+        <v>264.16000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>29.2</v>
+      </c>
+      <c r="B26" s="10">
         <v>28</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C2" s="9" t="e">
-        <f>ROUND((B1 - A1) / A1 * 100, 2)</f>
-        <v>#VALUE!</v>
+      <c r="C26" s="10">
+        <f>ROUND((B26 - A26) / A26 * 100, 2)</f>
+        <v>-4.1100000000000003</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="0"/>
+        <v>253.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>29.6</v>
+      </c>
+      <c r="B27" s="10">
+        <v>29.3</v>
+      </c>
+      <c r="C27" s="10">
+        <f>ROUND((B27 - A27) / A27 * 100, 2)</f>
+        <v>-1.01</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="0"/>
+        <v>250.74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>25.8</v>
+      </c>
+      <c r="B28" s="10">
+        <v>25.35</v>
+      </c>
+      <c r="C28" s="10">
+        <f>ROUND((B28 - A28) / A28 * 100, 2)</f>
+        <v>-1.74</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" si="0"/>
+        <v>246.38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>13</v>
+      </c>
+      <c r="B31" s="10">
+        <v>13.95</v>
+      </c>
+      <c r="C31" s="10">
+        <f>ROUND((B31 - A31) / A31 * 100, 2)</f>
+        <v>7.31</v>
+      </c>
+      <c r="D31" s="10">
+        <f t="shared" ref="D31:D66" si="1">ROUND(D30 * (1 + C31 / 100), 2)</f>
+        <v>107.31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>14.5</v>
+      </c>
+      <c r="B32" s="10">
+        <v>14.66</v>
+      </c>
+      <c r="C32" s="10">
+        <f>ROUND((B32 - A32) / A32 * 100, 2)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D32" s="10">
+        <f t="shared" si="1"/>
+        <v>108.49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <v>15.16</v>
+      </c>
+      <c r="B33" s="10">
+        <v>15.16</v>
+      </c>
+      <c r="C33" s="10">
+        <f>ROUND((B33 - A33) / A33 * 100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="10">
+        <f t="shared" si="1"/>
+        <v>108.49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="B34" s="10">
+        <v>17.7</v>
+      </c>
+      <c r="C34" s="10">
+        <f>ROUND((B34 - A34) / A34 * 100, 2)</f>
+        <v>6.63</v>
+      </c>
+      <c r="D34" s="10">
+        <f t="shared" si="1"/>
+        <v>115.68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <v>19.5</v>
+      </c>
+      <c r="B35" s="10">
+        <v>21.29</v>
+      </c>
+      <c r="C35" s="10">
+        <f>ROUND((B35 - A35) / A35 * 100, 2)</f>
+        <v>9.18</v>
+      </c>
+      <c r="D35" s="10">
+        <f t="shared" si="1"/>
+        <v>126.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="B36" s="10">
+        <v>20.13</v>
+      </c>
+      <c r="C36" s="10">
+        <f>ROUND((B36 - A36) / A36 * 100, 2)</f>
+        <v>3.76</v>
+      </c>
+      <c r="D36" s="10">
+        <f t="shared" si="1"/>
+        <v>131.05000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
+        <v>22.08</v>
+      </c>
+      <c r="B37" s="10">
+        <v>22.21</v>
+      </c>
+      <c r="C37" s="10">
+        <f>ROUND((B37 - A37) / A37 * 100, 2)</f>
+        <v>0.59</v>
+      </c>
+      <c r="D37" s="10">
+        <f t="shared" si="1"/>
+        <v>131.82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
+        <v>20.27</v>
+      </c>
+      <c r="B38" s="10">
+        <v>20.54</v>
+      </c>
+      <c r="C38" s="10">
+        <f>ROUND((B38 - A38) / A38 * 100, 2)</f>
+        <v>1.33</v>
+      </c>
+      <c r="D38" s="10">
+        <f t="shared" si="1"/>
+        <v>133.57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
+        <v>21.02</v>
+      </c>
+      <c r="B39" s="10">
+        <v>19.78</v>
+      </c>
+      <c r="C39" s="10">
+        <f>ROUND((B39 - A39) / A39 * 100, 2)</f>
+        <v>-5.9</v>
+      </c>
+      <c r="D39" s="10">
+        <f t="shared" si="1"/>
+        <v>125.69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="B40" s="10">
+        <v>18.75</v>
+      </c>
+      <c r="C40" s="10">
+        <f>ROUND((B40 - A40) / A40 * 100, 2)</f>
+        <v>-5.54</v>
+      </c>
+      <c r="D40" s="10">
+        <f t="shared" si="1"/>
+        <v>118.73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
+        <v>20.14</v>
+      </c>
+      <c r="B41" s="10">
+        <v>19.78</v>
+      </c>
+      <c r="C41" s="10">
+        <f>ROUND((B41 - A41) / A41 * 100, 2)</f>
+        <v>-1.79</v>
+      </c>
+      <c r="D41" s="10">
+        <f t="shared" si="1"/>
+        <v>116.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="B42" s="10">
+        <v>19.55</v>
+      </c>
+      <c r="C42" s="10">
+        <f>ROUND((B42 - A42) / A42 * 100, 2)</f>
+        <v>-4.3499999999999996</v>
+      </c>
+      <c r="D42" s="10">
+        <f t="shared" si="1"/>
+        <v>111.53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="B43" s="10">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="C43" s="10">
+        <f>ROUND((B43 - A43) / A43 * 100, 2)</f>
+        <v>-0.25</v>
+      </c>
+      <c r="D43" s="10">
+        <f t="shared" si="1"/>
+        <v>111.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
+        <v>21.88</v>
+      </c>
+      <c r="B44" s="10">
+        <v>23.79</v>
+      </c>
+      <c r="C44" s="10">
+        <f>ROUND((B44 - A44) / A44 * 100, 2)</f>
+        <v>8.73</v>
+      </c>
+      <c r="D44" s="10">
+        <f t="shared" si="1"/>
+        <v>120.96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
+        <v>22.6</v>
+      </c>
+      <c r="B45" s="10">
+        <v>23.7</v>
+      </c>
+      <c r="C45" s="10">
+        <f>ROUND((B45 - A45) / A45 * 100, 2)</f>
+        <v>4.87</v>
+      </c>
+      <c r="D45" s="10">
+        <f t="shared" si="1"/>
+        <v>126.85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="10">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="B46" s="10">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="C46" s="10">
+        <f>ROUND((B46 - A46) / A46 * 100, 2)</f>
+        <v>-8.74</v>
+      </c>
+      <c r="D46" s="10">
+        <f t="shared" si="1"/>
+        <v>115.76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
+        <v>17.47</v>
+      </c>
+      <c r="B47" s="10">
+        <v>17.329999999999998</v>
+      </c>
+      <c r="C47" s="10">
+        <f>ROUND((B47 - A47) / A47 * 100, 2)</f>
+        <v>-0.8</v>
+      </c>
+      <c r="D47" s="10">
+        <f t="shared" si="1"/>
+        <v>114.83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
+        <v>17.64</v>
+      </c>
+      <c r="B48" s="10">
+        <v>17.57</v>
+      </c>
+      <c r="C48" s="10">
+        <f>ROUND((B48 - A48) / A48 * 100, 2)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="D48" s="10">
+        <f t="shared" si="1"/>
+        <v>114.37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="10">
+        <v>18.05</v>
+      </c>
+      <c r="B49" s="10">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="C49" s="10">
+        <f>ROUND((B49 - A49) / A49 * 100, 2)</f>
+        <v>4.82</v>
+      </c>
+      <c r="D49" s="10">
+        <f t="shared" si="1"/>
+        <v>119.88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
+        <v>19.63</v>
+      </c>
+      <c r="B50" s="10">
+        <v>19.63</v>
+      </c>
+      <c r="C50" s="10">
+        <f>ROUND((B50 - A50) / A50 * 100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="10">
+        <f t="shared" si="1"/>
+        <v>119.88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
+        <v>13.8</v>
+      </c>
+      <c r="B51" s="10">
+        <v>15.2</v>
+      </c>
+      <c r="C51" s="10">
+        <f>ROUND((B51 - A51) / A51 * 100, 2)</f>
+        <v>10.14</v>
+      </c>
+      <c r="D51" s="10">
+        <f t="shared" si="1"/>
+        <v>132.04</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
+        <v>15.11</v>
+      </c>
+      <c r="B52" s="10">
+        <v>15.27</v>
+      </c>
+      <c r="C52" s="10">
+        <f>ROUND((B52 - A52) / A52 * 100, 2)</f>
+        <v>1.06</v>
+      </c>
+      <c r="D52" s="10">
+        <f t="shared" si="1"/>
+        <v>133.44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
+        <v>14.9</v>
+      </c>
+      <c r="B53" s="10">
+        <v>15.15</v>
+      </c>
+      <c r="C53" s="10">
+        <f>ROUND((B53 - A53) / A53 * 100, 2)</f>
+        <v>1.68</v>
+      </c>
+      <c r="D53" s="10">
+        <f t="shared" si="1"/>
+        <v>135.68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
+        <v>16.97</v>
+      </c>
+      <c r="B54" s="10">
+        <v>17.18</v>
+      </c>
+      <c r="C54" s="10">
+        <f>ROUND((B54 - A54) / A54 * 100, 2)</f>
+        <v>1.24</v>
+      </c>
+      <c r="D54" s="10">
+        <f t="shared" si="1"/>
+        <v>137.36000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
+        <v>18.04</v>
+      </c>
+      <c r="B55" s="10">
+        <v>18.440000000000001</v>
+      </c>
+      <c r="C55" s="10">
+        <f>ROUND((B55 - A55) / A55 * 100, 2)</f>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D55" s="10">
+        <f t="shared" si="1"/>
+        <v>140.41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="10">
+        <v>18.93</v>
+      </c>
+      <c r="B56" s="10">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="C56" s="10">
+        <f>ROUND((B56 - A56) / A56 * 100, 2)</f>
+        <v>-6.18</v>
+      </c>
+      <c r="D56" s="10">
+        <f t="shared" si="1"/>
+        <v>131.72999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="10">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="B57" s="10">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="C57" s="10">
+        <f>ROUND((B57 - A57) / A57 * 100, 2)</f>
+        <v>2.13</v>
+      </c>
+      <c r="D57" s="10">
+        <f t="shared" si="1"/>
+        <v>134.54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="10">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="B58" s="10">
+        <v>17.61</v>
+      </c>
+      <c r="C58" s="10">
+        <f>ROUND((B58 - A58) / A58 * 100, 2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="D58" s="10">
+        <f t="shared" si="1"/>
+        <v>134.62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="10">
+        <v>17.71</v>
+      </c>
+      <c r="B59" s="10">
+        <v>20.99</v>
+      </c>
+      <c r="C59" s="10">
+        <f>ROUND((B59 - A59) / A59 * 100, 2)</f>
+        <v>18.52</v>
+      </c>
+      <c r="D59" s="10">
+        <f t="shared" si="1"/>
+        <v>159.55000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="10">
+        <v>22.15</v>
+      </c>
+      <c r="B60" s="10">
+        <v>23.3</v>
+      </c>
+      <c r="C60" s="10">
+        <f>ROUND((B60 - A60) / A60 * 100, 2)</f>
+        <v>5.19</v>
+      </c>
+      <c r="D60" s="10">
+        <f t="shared" si="1"/>
+        <v>167.83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="10">
+        <v>24.7</v>
+      </c>
+      <c r="B61" s="10">
+        <v>24.85</v>
+      </c>
+      <c r="C61" s="10">
+        <f>ROUND((B61 - A61) / A61 * 100, 2)</f>
+        <v>0.61</v>
+      </c>
+      <c r="D61" s="10">
+        <f t="shared" si="1"/>
+        <v>168.85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="10">
+        <v>23.09</v>
+      </c>
+      <c r="B62" s="10">
+        <v>22.45</v>
+      </c>
+      <c r="C62" s="10">
+        <f>ROUND((B62 - A62) / A62 * 100, 2)</f>
+        <v>-2.77</v>
+      </c>
+      <c r="D62" s="10">
+        <f t="shared" si="1"/>
+        <v>164.17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="10">
+        <v>22.5</v>
+      </c>
+      <c r="B63" s="10">
+        <v>23.1</v>
+      </c>
+      <c r="C63" s="10">
+        <f>ROUND((B63 - A63) / A63 * 100, 2)</f>
+        <v>2.67</v>
+      </c>
+      <c r="D63" s="10">
+        <f t="shared" si="1"/>
+        <v>168.55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="10">
+        <v>23.3</v>
+      </c>
+      <c r="B64" s="10">
+        <v>24.8</v>
+      </c>
+      <c r="C64" s="10">
+        <f>ROUND((B64 - A64) / A64 * 100, 2)</f>
+        <v>6.44</v>
+      </c>
+      <c r="D64" s="10">
+        <f t="shared" si="1"/>
+        <v>179.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="10">
+        <v>25.4</v>
+      </c>
+      <c r="B65" s="10">
+        <v>22.95</v>
+      </c>
+      <c r="C65" s="10">
+        <f>ROUND((B65 - A65) / A65 * 100, 2)</f>
+        <v>-9.65</v>
+      </c>
+      <c r="D65" s="10">
+        <f t="shared" si="1"/>
+        <v>162.09</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="10">
+        <v>24</v>
+      </c>
+      <c r="B66" s="10">
+        <v>24.4</v>
+      </c>
+      <c r="C66" s="10">
+        <f>ROUND((B66 - A66) / A66 * 100, 2)</f>
+        <v>1.67</v>
+      </c>
+      <c r="D66" s="10">
+        <f t="shared" si="1"/>
+        <v>164.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D68" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="10">
+        <v>16.7</v>
+      </c>
+      <c r="B69" s="10">
+        <v>16.2</v>
+      </c>
+      <c r="C69" s="10">
+        <f>ROUND((B69 - A69) / A69 * 100, 2)</f>
+        <v>-2.99</v>
+      </c>
+      <c r="D69" s="10">
+        <f t="shared" ref="D69:D86" si="2">ROUND(D68 * (1 + C69 / 100), 2)</f>
+        <v>97.01</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="10">
+        <v>18.5</v>
+      </c>
+      <c r="B70" s="10">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C70" s="10">
+        <f>ROUND((B70 - A70) / A70 * 100, 2)</f>
+        <v>2.16</v>
+      </c>
+      <c r="D70" s="10">
+        <f t="shared" si="2"/>
+        <v>99.11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="10">
+        <v>19.5</v>
+      </c>
+      <c r="B71" s="10">
+        <v>19.5</v>
+      </c>
+      <c r="C71" s="10">
+        <f>ROUND((B71 - A71) / A71 * 100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="10">
+        <f t="shared" si="2"/>
+        <v>99.11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="10">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="B72" s="10">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="C72" s="10">
+        <f>ROUND((B72 - A72) / A72 * 100, 2)</f>
+        <v>-4.12</v>
+      </c>
+      <c r="D72" s="10">
+        <f t="shared" si="2"/>
+        <v>95.03</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="10">
+        <v>19.8</v>
+      </c>
+      <c r="B73" s="10">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C73" s="10">
+        <f>ROUND((B73 - A73) / A73 * 100, 2)</f>
+        <v>1.52</v>
+      </c>
+      <c r="D73" s="10">
+        <f t="shared" si="2"/>
+        <v>96.47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="10">
+        <v>20.3</v>
+      </c>
+      <c r="B74" s="10">
+        <v>22.79</v>
+      </c>
+      <c r="C74" s="10">
+        <f>ROUND((B74 - A74) / A74 * 100, 2)</f>
+        <v>12.27</v>
+      </c>
+      <c r="D74" s="10">
+        <f t="shared" si="2"/>
+        <v>108.31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="10">
+        <v>23.5</v>
+      </c>
+      <c r="B75" s="10">
+        <v>23.2</v>
+      </c>
+      <c r="C75" s="10">
+        <f>ROUND((B75 - A75) / A75 * 100, 2)</f>
+        <v>-1.28</v>
+      </c>
+      <c r="D75" s="10">
+        <f t="shared" si="2"/>
+        <v>106.92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="10">
+        <v>24.6</v>
+      </c>
+      <c r="B76" s="10">
+        <v>25.6</v>
+      </c>
+      <c r="C76" s="10">
+        <f>ROUND((B76 - A76) / A76 * 100, 2)</f>
+        <v>4.07</v>
+      </c>
+      <c r="D76" s="10">
+        <f t="shared" si="2"/>
+        <v>111.27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="B77" s="10">
+        <v>24.3</v>
+      </c>
+      <c r="C77" s="10">
+        <f>ROUND((B77 - A77) / A77 * 100, 2)</f>
+        <v>-4.71</v>
+      </c>
+      <c r="D77" s="10">
+        <f t="shared" si="2"/>
+        <v>106.03</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="10">
+        <v>25.6</v>
+      </c>
+      <c r="B78" s="10">
+        <v>26.3</v>
+      </c>
+      <c r="C78" s="10">
+        <f>ROUND((B78 - A78) / A78 * 100, 2)</f>
+        <v>2.73</v>
+      </c>
+      <c r="D78" s="10">
+        <f t="shared" si="2"/>
+        <v>108.92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="10">
+        <v>27.08</v>
+      </c>
+      <c r="B79" s="10">
+        <v>28.1</v>
+      </c>
+      <c r="C79" s="10">
+        <f>ROUND((B79 - A79) / A79 * 100, 2)</f>
+        <v>3.77</v>
+      </c>
+      <c r="D79" s="10">
+        <f t="shared" si="2"/>
+        <v>113.03</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="10">
+        <v>26.05</v>
+      </c>
+      <c r="B80" s="10">
+        <v>23.6</v>
+      </c>
+      <c r="C80" s="10">
+        <f>ROUND((B80 - A80) / A80 * 100, 2)</f>
+        <v>-9.4</v>
+      </c>
+      <c r="D80" s="10">
+        <f t="shared" si="2"/>
+        <v>102.41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="B81" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="C81" s="10">
+        <f>ROUND((B81 - A81) / A81 * 100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="D81" s="10">
+        <f t="shared" si="2"/>
+        <v>102.41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="10">
+        <v>25.05</v>
+      </c>
+      <c r="B82" s="10">
+        <v>25.46</v>
+      </c>
+      <c r="C82" s="10">
+        <f>ROUND((B82 - A82) / A82 * 100, 2)</f>
+        <v>1.64</v>
+      </c>
+      <c r="D82" s="10">
+        <f t="shared" si="2"/>
+        <v>104.09</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="10">
+        <v>25.17</v>
+      </c>
+      <c r="B83" s="10">
+        <v>25.99</v>
+      </c>
+      <c r="C83" s="10">
+        <f>ROUND((B83 - A83) / A83 * 100, 2)</f>
+        <v>3.26</v>
+      </c>
+      <c r="D83" s="10">
+        <f t="shared" si="2"/>
+        <v>107.48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="10">
+        <v>25.02</v>
+      </c>
+      <c r="B84" s="10">
+        <v>25.02</v>
+      </c>
+      <c r="C84" s="10">
+        <f>ROUND((B84 - A84) / A84 * 100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="D84" s="10">
+        <f t="shared" si="2"/>
+        <v>107.48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="10">
+        <v>18.2</v>
+      </c>
+      <c r="B85" s="10">
+        <v>17.3</v>
+      </c>
+      <c r="C85" s="10">
+        <f>ROUND((B85 - A85) / A85 * 100, 2)</f>
+        <v>-4.95</v>
+      </c>
+      <c r="D85" s="10">
+        <f t="shared" si="2"/>
+        <v>102.16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="10">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="B86" s="10">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C86" s="10">
+        <f>ROUND((B86 - A86) / A86 * 100, 2)</f>
+        <v>-3.98</v>
+      </c>
+      <c r="D86" s="10">
+        <f t="shared" si="2"/>
+        <v>98.09</v>
       </c>
     </row>
   </sheetData>

--- a/stock_trading_journal.xlsx
+++ b/stock_trading_journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChienVH\Code\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E87EAA8-4FAC-4602-8EE9-7563A42C650D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8377F3-48CD-415A-B42D-76D892C63C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tài Khoản" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="915">
   <si>
     <t>Ngày giao dịch</t>
   </si>
@@ -1914,9 +1914,6 @@
     <t>ko nên chủ quan, nên cài lệnh dừng nếu thủng trend line dưới</t>
   </si>
   <si>
-    <t>Thị trường giảm mạnh vẫn tăng và vượt lên trên được ma20</t>
-  </si>
-  <si>
     <t>25/8/2025</t>
   </si>
   <si>
@@ -2334,6 +2331,9 @@
     <t>311.302</t>
   </si>
   <si>
+    <t>vẫn tích lũy trên ma20</t>
+  </si>
+  <si>
     <t>NLG</t>
   </si>
   <si>
@@ -2541,9 +2541,6 @@
     <t>3000</t>
   </si>
   <si>
-    <t>TV2</t>
-  </si>
-  <si>
     <t>286.670</t>
   </si>
   <si>
@@ -2715,12 +2712,6 @@
     <t>269.323</t>
   </si>
   <si>
-    <t>vẫn trên ma20 nhưng thị trường xấu cần theo dõi</t>
-  </si>
-  <si>
-    <t>giảm về tới ma20</t>
-  </si>
-  <si>
     <t>vẫn trên được ma20</t>
   </si>
   <si>
@@ -2731,6 +2722,66 @@
   </si>
   <si>
     <t>-20.4</t>
+  </si>
+  <si>
+    <t>10/11/2025</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>251.883</t>
+  </si>
+  <si>
+    <t>11/11/2025</t>
+  </si>
+  <si>
+    <t>253.852</t>
+  </si>
+  <si>
+    <t>12/11/2025</t>
+  </si>
+  <si>
+    <t>259.590</t>
+  </si>
+  <si>
+    <t>13/11/2025</t>
+  </si>
+  <si>
+    <t>36, 39.1</t>
+  </si>
+  <si>
+    <t>18.8, 21.5</t>
+  </si>
+  <si>
+    <t>lên lại được ma20 nhưng rúc vào mây nên hơi yếu</t>
+  </si>
+  <si>
+    <t>2 cây trên ma20</t>
+  </si>
+  <si>
+    <t>268.325</t>
+  </si>
+  <si>
+    <t>14/11/2025</t>
+  </si>
+  <si>
+    <t>266.467</t>
+  </si>
+  <si>
+    <t>7.378</t>
+  </si>
+  <si>
+    <t>sau cây trần, cây test 1 ok</t>
+  </si>
+  <si>
+    <t>tích lũy được trên ma20</t>
+  </si>
+  <si>
+    <t>vẫn đang tích lũy trên ma20</t>
+  </si>
+  <si>
+    <t>vượt ma20, 1 cây test ok</t>
   </si>
 </sst>
 </file>
@@ -3460,11 +3511,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F80FBEA-61B1-4D5E-A59E-30CA607BFEAD}">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
+      <selection pane="bottomLeft" activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4357,10 +4408,10 @@
     </row>
     <row r="71" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="29" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C71" s="29">
         <f t="shared" ref="C71" si="4">B71-B70</f>
@@ -4371,10 +4422,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="27" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C72" s="27">
         <f t="shared" si="3"/>
@@ -4383,10 +4434,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="27" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C73" s="27">
         <f t="shared" si="3"/>
@@ -4395,10 +4446,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="27" t="s">
+        <v>638</v>
+      </c>
+      <c r="B74" s="27" t="s">
         <v>639</v>
-      </c>
-      <c r="B74" s="27" t="s">
-        <v>640</v>
       </c>
       <c r="C74" s="27">
         <f t="shared" si="3"/>
@@ -4407,25 +4458,25 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="27" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C75" s="27">
         <f t="shared" si="3"/>
         <v>7.910000000000025</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="29" t="s">
+        <v>658</v>
+      </c>
+      <c r="B76" s="29" t="s">
         <v>659</v>
-      </c>
-      <c r="B76" s="29" t="s">
-        <v>660</v>
       </c>
       <c r="C76" s="29">
         <f t="shared" si="3"/>
@@ -4436,10 +4487,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="27" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C77" s="27">
         <f t="shared" si="3"/>
@@ -4448,25 +4499,25 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="27" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C78" s="27">
         <f t="shared" si="3"/>
         <v>-15.769999999999982</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="29" t="s">
+        <v>682</v>
+      </c>
+      <c r="B79" s="29" t="s">
         <v>683</v>
-      </c>
-      <c r="B79" s="29" t="s">
-        <v>684</v>
       </c>
       <c r="C79" s="29">
         <f t="shared" si="3"/>
@@ -4477,10 +4528,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="27" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C80" s="27">
         <f t="shared" ref="C80:C97" si="5">B80-B79</f>
@@ -4489,10 +4540,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="27" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C81" s="27">
         <f t="shared" si="5"/>
@@ -4501,10 +4552,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="27" t="s">
+        <v>698</v>
+      </c>
+      <c r="B82" s="27" t="s">
         <v>699</v>
-      </c>
-      <c r="B82" s="27" t="s">
-        <v>700</v>
       </c>
       <c r="C82" s="27">
         <f t="shared" si="5"/>
@@ -4513,27 +4564,27 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="27" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B83" s="27" t="s">
+        <v>709</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>708</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>706</v>
+      </c>
+      <c r="E83" s="27" t="s">
         <v>710</v>
-      </c>
-      <c r="C83" s="27" t="s">
-        <v>709</v>
-      </c>
-      <c r="D83" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E83" s="27" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="29" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C84" s="29">
         <f t="shared" si="5"/>
@@ -4544,10 +4595,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="27" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C85" s="27">
         <f t="shared" si="5"/>
@@ -4556,10 +4607,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="B86" s="27" t="s">
         <v>722</v>
-      </c>
-      <c r="B86" s="27" t="s">
-        <v>723</v>
       </c>
       <c r="C86" s="27">
         <f t="shared" si="5"/>
@@ -4568,10 +4619,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="27" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C87" s="27">
         <f t="shared" si="5"/>
@@ -4580,25 +4631,25 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="27" t="s">
+        <v>729</v>
+      </c>
+      <c r="B88" s="27" t="s">
         <v>730</v>
-      </c>
-      <c r="B88" s="27" t="s">
-        <v>731</v>
       </c>
       <c r="C88" s="27">
         <f t="shared" si="5"/>
         <v>-1.48599999999999</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="29" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C89" s="29">
         <f t="shared" ref="C89" si="6">B89-B88</f>
@@ -4609,10 +4660,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="27" t="s">
+        <v>745</v>
+      </c>
+      <c r="B90" s="27" t="s">
         <v>746</v>
-      </c>
-      <c r="B90" s="27" t="s">
-        <v>747</v>
       </c>
       <c r="C90" s="27">
         <f t="shared" si="5"/>
@@ -4621,10 +4672,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="27" t="s">
+        <v>748</v>
+      </c>
+      <c r="B91" s="27" t="s">
         <v>749</v>
-      </c>
-      <c r="B91" s="27" t="s">
-        <v>750</v>
       </c>
       <c r="C91" s="27">
         <f t="shared" si="5"/>
@@ -4633,10 +4684,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="27" t="s">
+        <v>751</v>
+      </c>
+      <c r="B92" s="27" t="s">
         <v>752</v>
-      </c>
-      <c r="B92" s="27" t="s">
-        <v>753</v>
       </c>
       <c r="C92" s="27">
         <f t="shared" si="5"/>
@@ -4645,25 +4696,25 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="27" t="s">
+        <v>756</v>
+      </c>
+      <c r="B93" s="27" t="s">
         <v>757</v>
-      </c>
-      <c r="B93" s="27" t="s">
-        <v>758</v>
       </c>
       <c r="C93" s="27">
         <f t="shared" si="5"/>
         <v>-5.6059999999999945</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="29" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C94" s="29">
         <f t="shared" si="5"/>
@@ -4886,7 +4937,7 @@
         <v>829</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C111" s="27">
         <f t="shared" ref="C111" si="13">B111-B110</f>
@@ -4895,37 +4946,37 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C112" s="27">
-        <f t="shared" ref="C112:C123" si="14">B112-B111</f>
+        <f t="shared" ref="C112:C127" si="14">B112-B111</f>
         <v>-1.5749999999999886</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="27" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C113" s="27">
         <f t="shared" si="14"/>
         <v>-0.35200000000003229</v>
       </c>
       <c r="D113" s="27" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="114" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="29" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C114" s="29">
         <f t="shared" si="14"/>
@@ -4936,10 +4987,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="27" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C115" s="27">
         <f t="shared" si="14"/>
@@ -4948,10 +4999,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="27" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C116" s="27">
         <f t="shared" si="14"/>
@@ -4960,10 +5011,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="27" t="s">
+        <v>867</v>
+      </c>
+      <c r="B117" s="27" t="s">
         <v>868</v>
-      </c>
-      <c r="B117" s="27" t="s">
-        <v>869</v>
       </c>
       <c r="C117" s="27">
         <f t="shared" si="14"/>
@@ -4972,25 +5023,25 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="27" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C118" s="27">
         <f t="shared" si="14"/>
         <v>-1.9889999999999759</v>
       </c>
       <c r="D118" s="27" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="119" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="29" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C119" s="29">
         <f t="shared" ref="C119" si="15">B119-B118</f>
@@ -5001,10 +5052,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="27" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C120" s="27">
         <f t="shared" si="14"/>
@@ -5013,10 +5064,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="27" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C121" s="27">
         <f t="shared" si="14"/>
@@ -5025,10 +5076,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="27" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C122" s="27">
         <f t="shared" si="14"/>
@@ -5037,17 +5088,82 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="27" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C123" s="27">
         <f t="shared" si="14"/>
         <v>-10.23399999999998</v>
       </c>
       <c r="D123" s="27" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="29" t="s">
+        <v>895</v>
+      </c>
+      <c r="B124" s="29" t="s">
         <v>897</v>
+      </c>
+      <c r="C124" s="29">
+        <f t="shared" si="14"/>
+        <v>-7.2059999999999889</v>
+      </c>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="27" t="s">
+        <v>898</v>
+      </c>
+      <c r="B125" s="27" t="s">
+        <v>899</v>
+      </c>
+      <c r="C125" s="27">
+        <f t="shared" si="14"/>
+        <v>1.9689999999999941</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="27" t="s">
+        <v>900</v>
+      </c>
+      <c r="B126" s="27" t="s">
+        <v>901</v>
+      </c>
+      <c r="C126" s="27">
+        <f t="shared" si="14"/>
+        <v>5.7379999999999711</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="27" t="s">
+        <v>902</v>
+      </c>
+      <c r="B127" s="27" t="s">
+        <v>907</v>
+      </c>
+      <c r="C127" s="27">
+        <f t="shared" si="14"/>
+        <v>8.7350000000000136</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="27" t="s">
+        <v>908</v>
+      </c>
+      <c r="B128" s="27" t="s">
+        <v>909</v>
+      </c>
+      <c r="C128" s="27">
+        <f t="shared" ref="C128" si="16">B128-B127</f>
+        <v>-1.8580000000000041</v>
+      </c>
+      <c r="D128" s="27" t="s">
+        <v>910</v>
       </c>
     </row>
   </sheetData>
@@ -17281,9 +17397,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70DC592-D4E4-4D13-ADCA-E681C1A017AC}">
   <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -17319,7 +17435,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>8</v>
@@ -17331,146 +17447,146 @@
         <v>43</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="J1" s="36" t="s">
         <v>703</v>
       </c>
-      <c r="J1" s="36" t="s">
-        <v>704</v>
-      </c>
       <c r="K1" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    </row>
+    <row r="2" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>830</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>831</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>829</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="12">
+      <c r="D2" s="31"/>
+      <c r="E2" s="10">
         <v>34.33</v>
       </c>
-      <c r="F2" s="12">
-        <v>34</v>
-      </c>
-      <c r="G2" s="12">
+      <c r="F2" s="10">
+        <v>34.5</v>
+      </c>
+      <c r="G2" s="10">
         <f>ROUND((F2 - E2) / E2 * 100, 2)</f>
-        <v>-0.96</v>
-      </c>
-      <c r="H2" s="13" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>828</v>
       </c>
-      <c r="I2" s="13">
-        <v>39.1</v>
-      </c>
-      <c r="J2" s="37" t="s">
+      <c r="I2" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="J2" s="38" t="s">
         <v>791</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="K2" s="7" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>844</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="31" t="s">
         <v>843</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="12">
+      <c r="C3" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="10">
         <v>37.130000000000003</v>
       </c>
-      <c r="F3" s="12">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="G3" s="12">
+      <c r="F3" s="10">
+        <v>38</v>
+      </c>
+      <c r="G3" s="10">
         <f>ROUND((F3 - E3) / E3 * 100, 2)</f>
-        <v>-1.1599999999999999</v>
-      </c>
-      <c r="H3" s="13" t="s">
+        <v>2.34</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>828</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="7">
         <v>40.5</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="38" t="s">
         <v>791</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="K3" s="7" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>593</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>850</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="12">
+      <c r="C4" s="15" t="s">
+        <v>849</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="10">
         <v>93.1</v>
       </c>
-      <c r="F4" s="12">
-        <v>93.1</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="F4" s="10">
+        <v>99.4</v>
+      </c>
+      <c r="G4" s="10">
         <f>ROUND((F4 - E4) / E4 * 100, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="13" t="s">
+        <v>6.77</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="I4" s="13">
-        <v>101</v>
-      </c>
-      <c r="J4" s="37" t="s">
+      <c r="I4" s="7">
+        <v>107</v>
+      </c>
+      <c r="J4" s="38" t="s">
         <v>791</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>760</v>
+      <c r="K4" s="7" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="10">
         <v>54.65</v>
       </c>
       <c r="F5" s="10">
-        <v>54.9</v>
+        <v>55.4</v>
       </c>
       <c r="G5" s="10">
         <f>ROUND((F5 - E5) / E5 * 100, 2)</f>
-        <v>0.46</v>
+        <v>1.37</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="I5" s="7">
         <v>60</v>
@@ -17479,138 +17595,136 @@
         <v>791</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>892</v>
+        <v>912</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>832</v>
+        <v>35</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>739</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>870</v>
+        <v>888</v>
+      </c>
+      <c r="C6" s="16">
+        <v>45819</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="12">
-        <v>17.965</v>
+        <v>68.954999999999998</v>
       </c>
       <c r="F6" s="12">
-        <v>17.05</v>
+        <v>67.5</v>
       </c>
       <c r="G6" s="12">
-        <f>ROUND((F6 - E6) / E6 * 100, 2)</f>
-        <v>-5.09</v>
+        <f t="shared" ref="G6:G8" si="0">ROUND((F6 - E6) / E6 * 100, 2)</f>
+        <v>-2.11</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>871</v>
+        <v>889</v>
       </c>
       <c r="I6" s="13">
-        <v>21.5</v>
+        <v>78</v>
       </c>
       <c r="J6" s="37" t="s">
         <v>791</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>831</v>
+      </c>
+      <c r="C7" s="15">
+        <v>45819</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="10">
+        <v>31.475000000000001</v>
+      </c>
+      <c r="F7" s="10">
+        <v>32</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="0"/>
+        <v>1.67</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="I7" s="7">
+        <v>35.35</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>791</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>885</v>
-      </c>
-      <c r="C7" s="16">
-        <v>45788</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="12">
-        <v>17.114000000000001</v>
-      </c>
-      <c r="F7" s="12">
-        <v>16.7</v>
-      </c>
-      <c r="G7" s="12">
-        <f>ROUND((F7 - E7) / E7 * 100, 2)</f>
-        <v>-2.42</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>886</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="37" t="s">
+      <c r="B8" s="31" t="s">
+        <v>896</v>
+      </c>
+      <c r="C8" s="15">
+        <v>45941</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="10">
+        <v>16.914999999999999</v>
+      </c>
+      <c r="F8" s="10">
+        <v>17.05</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="I8" s="7">
+        <v>19.5</v>
+      </c>
+      <c r="J8" s="38" t="s">
         <v>791</v>
       </c>
-      <c r="K7" s="13" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>889</v>
-      </c>
-      <c r="C8" s="16">
-        <v>45819</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="12">
-        <v>68.954999999999998</v>
-      </c>
-      <c r="F8" s="12">
-        <v>68</v>
-      </c>
-      <c r="G8" s="12">
-        <f t="shared" ref="G8:G9" si="0">ROUND((F8 - E8) / E8 * 100, 2)</f>
-        <v>-1.38</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>890</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="13" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>743</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="C9" s="16">
-        <v>45819</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="12">
-        <v>31.475000000000001</v>
-      </c>
-      <c r="F9" s="12">
-        <v>30.3</v>
-      </c>
-      <c r="G9" s="12">
-        <f t="shared" si="0"/>
-        <v>-3.73</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>849</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="13" t="s">
-        <v>760</v>
-      </c>
+      <c r="K8" s="7" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>592</v>
+        <v>851</v>
       </c>
       <c r="B14" s="30"/>
       <c r="D14" s="30"/>
@@ -17621,7 +17735,7 @@
     </row>
     <row r="15" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>35</v>
+        <v>835</v>
       </c>
       <c r="B15" s="30"/>
       <c r="D15" s="30"/>
@@ -17632,18 +17746,20 @@
     </row>
     <row r="16" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>862</v>
+        <v>40</v>
       </c>
       <c r="B16" s="30"/>
       <c r="D16" s="30"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="36"/>
-      <c r="K16" s="6"/>
+      <c r="K16" s="6" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="B17" s="30"/>
       <c r="D17" s="30"/>
@@ -17654,7 +17770,7 @@
     </row>
     <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="B18" s="30"/>
       <c r="D18" s="30"/>
@@ -17665,20 +17781,18 @@
     </row>
     <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>40</v>
+        <v>840</v>
       </c>
       <c r="B19" s="30"/>
       <c r="D19" s="30"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="36"/>
-      <c r="K19" s="6" t="s">
-        <v>851</v>
-      </c>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>839</v>
+        <v>22</v>
       </c>
       <c r="B20" s="30"/>
       <c r="D20" s="30"/>
@@ -17689,7 +17803,7 @@
     </row>
     <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>840</v>
+        <v>765</v>
       </c>
       <c r="B21" s="30"/>
       <c r="D21" s="30"/>
@@ -17700,20 +17814,18 @@
     </row>
     <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>834</v>
+        <v>775</v>
       </c>
       <c r="B22" s="30"/>
       <c r="D22" s="30"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="36"/>
-      <c r="K22" s="6" t="s">
-        <v>625</v>
-      </c>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>841</v>
+        <v>805</v>
       </c>
       <c r="B23" s="30"/>
       <c r="D23" s="30"/>
@@ -17724,7 +17836,7 @@
     </row>
     <row r="24" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>743</v>
+        <v>13</v>
       </c>
       <c r="B24" s="30"/>
       <c r="D24" s="30"/>
@@ -17733,73 +17845,88 @@
       <c r="J24" s="36"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>765</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>775</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="6"/>
+    <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>738</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>869</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>908</v>
+      </c>
+      <c r="E32" s="12">
+        <v>17.965</v>
+      </c>
+      <c r="F32" s="12">
+        <v>17.05</v>
+      </c>
+      <c r="G32" s="12">
+        <f>ROUND((F32 - E32) / E32 * 100, 2)</f>
+        <v>-5.09</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>904</v>
+      </c>
+      <c r="J32" s="37" t="s">
+        <v>791</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>884</v>
+      </c>
+      <c r="C33" s="16">
+        <v>45788</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>895</v>
+      </c>
+      <c r="E33" s="12">
+        <v>17.114000000000001</v>
+      </c>
+      <c r="F33" s="12">
+        <v>16.25</v>
+      </c>
+      <c r="G33" s="12">
+        <f>ROUND((F33 - E33) / E33 * 100, 2)</f>
+        <v>-5.05</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>885</v>
+      </c>
+      <c r="I33" s="13"/>
+      <c r="J33" s="37" t="s">
+        <v>791</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>891</v>
+      </c>
     </row>
     <row r="34" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C34" s="16">
         <v>45727</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E34" s="12">
         <v>40.131999999999998</v>
@@ -17812,7 +17939,7 @@
         <v>-2.7</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I34" s="13">
         <v>45.4</v>
@@ -17826,7 +17953,7 @@
     </row>
     <row r="35" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B35" s="32" t="s">
         <v>783</v>
@@ -17835,7 +17962,7 @@
         <v>45758</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E35" s="12">
         <v>25.971</v>
@@ -17853,7 +17980,7 @@
       <c r="I35" s="13"/>
       <c r="J35" s="37"/>
       <c r="K35" s="13" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -17864,10 +17991,10 @@
         <v>514</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E36" s="12">
         <v>35.078000000000003</v>
@@ -17889,24 +18016,24 @@
         <v>791</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B37" s="32" t="s">
         <v>593</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E37" s="12">
         <v>93.674999999999997</v>
@@ -17926,7 +18053,7 @@
         <v>791</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -17934,13 +18061,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E38" s="12">
         <v>13.51</v>
@@ -17953,14 +18080,14 @@
         <v>-5.26</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I38" s="13"/>
       <c r="J38" s="37" t="s">
         <v>791</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -17974,7 +18101,7 @@
         <v>829</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E39" s="10">
         <v>16.559999999999999</v>
@@ -17996,21 +18123,21 @@
         <v>791</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B40" s="32" t="s">
         <v>537</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E40" s="12">
         <v>113.3</v>
@@ -18027,10 +18154,10 @@
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="37" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -18044,7 +18171,7 @@
         <v>825</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E41" s="12">
         <v>30.425000000000001</v>
@@ -18064,7 +18191,7 @@
         <v>791</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -18078,7 +18205,7 @@
         <v>829</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E42" s="12">
         <v>22.22</v>
@@ -18100,7 +18227,7 @@
         <v>791</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -18234,7 +18361,7 @@
         <v>792</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -18245,7 +18372,7 @@
         <v>492</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D47" s="32" t="s">
         <v>823</v>
@@ -18261,7 +18388,7 @@
         <v>-2.34</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I47" s="13">
         <v>16.399999999999999</v>
@@ -18350,7 +18477,7 @@
         <v>33</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>766</v>
@@ -18386,10 +18513,10 @@
         <v>12</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D51" s="32" t="s">
         <v>773</v>
@@ -18405,7 +18532,7 @@
         <v>-6.05</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I51" s="13"/>
       <c r="J51" s="37">
@@ -18439,28 +18566,28 @@
         <v>-2.75</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I52" s="13"/>
       <c r="J52" s="37">
         <v>-5</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B53" s="32" t="s">
         <v>532</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>766</v>
@@ -18476,16 +18603,16 @@
         <v>-3.07</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I53" s="13">
         <v>87.7</v>
       </c>
       <c r="J53" s="37" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -18493,10 +18620,10 @@
         <v>10</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>766</v>
@@ -18512,25 +18639,25 @@
         <v>-5.07</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I54" s="13"/>
       <c r="J54" s="37">
         <v>-5</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B55" s="32" t="s">
+        <v>744</v>
+      </c>
+      <c r="C55" s="16" t="s">
         <v>745</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>746</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>766</v>
@@ -18546,28 +18673,28 @@
         <v>-4.9400000000000004</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I55" s="13"/>
       <c r="J55" s="37">
         <v>-5</v>
       </c>
       <c r="K55" s="13" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="56" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B56" s="32" t="s">
         <v>593</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E56" s="12">
         <v>105</v>
@@ -18580,28 +18707,28 @@
         <v>-6.1</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I56" s="13"/>
       <c r="J56" s="37">
         <v>97.5</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E57" s="12">
         <v>34.35</v>
@@ -18614,14 +18741,14 @@
         <v>-4.8</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I57" s="13"/>
       <c r="J57" s="37">
         <v>32.15</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="58" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -18629,13 +18756,13 @@
         <v>410</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E58" s="12">
         <v>61.4</v>
@@ -18648,14 +18775,14 @@
         <v>-3.26</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I58" s="13"/>
       <c r="J58" s="37">
         <v>58.7</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.3">
@@ -18663,7 +18790,7 @@
         <v>592</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C59" s="16">
         <v>45970</v>
@@ -18680,7 +18807,7 @@
         <v>-4.99</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I59" s="13">
         <v>48.2</v>
@@ -18689,7 +18816,7 @@
         <v>-5</v>
       </c>
       <c r="K59" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="60" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -18714,14 +18841,14 @@
         <v>-5.08</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I60" s="13"/>
       <c r="J60" s="37">
         <v>-5</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="61" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -18746,7 +18873,7 @@
         <v>-4.41</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I61" s="13">
         <v>25.8</v>
@@ -18780,7 +18907,7 @@
         <v>-2.92</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I62" s="13">
         <v>31.4</v>
@@ -18789,12 +18916,12 @@
         <v>28.25</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="63" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B63" s="32" t="s">
         <v>514</v>
@@ -18814,7 +18941,7 @@
         <v>-4.97</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I63" s="13">
         <v>42.3</v>
@@ -18848,12 +18975,12 @@
         <v>-8.1999999999999993</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I64" s="13"/>
       <c r="J64" s="37"/>
       <c r="K64" s="13" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -18864,7 +18991,7 @@
         <v>493</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D65" s="32"/>
       <c r="E65" s="12">
@@ -18883,18 +19010,18 @@
         <v>-5</v>
       </c>
       <c r="K65" s="13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="66" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D66" s="32"/>
       <c r="E66" s="12">
@@ -18912,7 +19039,7 @@
         <v>58</v>
       </c>
       <c r="J66" s="37" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K66" s="13" t="s">
         <v>465</v>
@@ -18920,13 +19047,13 @@
     </row>
     <row r="67" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D67" s="31"/>
       <c r="E67" s="10">
@@ -18947,18 +19074,18 @@
         <v>32.200000000000003</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="68" spans="1:12" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D68" s="31"/>
       <c r="E68" s="10">
@@ -18977,7 +19104,7 @@
         <v>25</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -19004,10 +19131,10 @@
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
       <c r="J69" s="37" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -19018,7 +19145,7 @@
         <v>514</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D70" s="32"/>
       <c r="E70" s="12">
@@ -19036,10 +19163,10 @@
         <v>45</v>
       </c>
       <c r="J70" s="37" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K70" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -19047,10 +19174,10 @@
         <v>612</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D71" s="32"/>
       <c r="E71" s="12">
@@ -19069,7 +19196,7 @@
         <v>-5</v>
       </c>
       <c r="K71" s="13" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="72" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -19080,7 +19207,7 @@
         <v>532</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D72" s="31"/>
       <c r="E72" s="10">
@@ -19099,7 +19226,7 @@
         <v>-5</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -19107,7 +19234,7 @@
         <v>30</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>616</v>
@@ -19142,7 +19269,7 @@
         <v>618</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>616</v>
@@ -21110,73 +21237,73 @@
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="20" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="20" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="21" x14ac:dyDescent="0.4">
@@ -21224,7 +21351,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B27" s="20" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -21247,7 +21374,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34" s="20" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -21282,7 +21409,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B41" s="20" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -21292,17 +21419,17 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B43" s="20" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B44" s="20" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B45" s="20" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -21322,7 +21449,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B49" s="20" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -21342,7 +21469,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B53" s="20" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -21352,31 +21479,31 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="21"/>
       <c r="B56" s="20" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="21"/>
       <c r="B57" s="20" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="21"/>
       <c r="B58" s="20" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="21"/>
       <c r="B59" s="20" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="21" x14ac:dyDescent="0.4">
@@ -21393,7 +21520,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B62" s="20" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -21403,7 +21530,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B64" s="20" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
@@ -21423,7 +21550,7 @@
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="20" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.3">
@@ -21468,12 +21595,12 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="20" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="20" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.3">
